--- a/mr-dashboards/mr2024/resources/MetadataFailingValidationAllEndpoints.xlsx
+++ b/mr-dashboards/mr2024/resources/MetadataFailingValidationAllEndpoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="197">
   <si>
     <t xml:space="preserve">md_failed</t>
   </si>
@@ -436,12 +436,6 @@
   </si>
   <si>
     <t xml:space="preserve">0513916a-d442-4974-afd1-47d9ccc27b23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">864dd8d5-5e47-47b4-8115-9675d62d316e</t>
   </si>
   <si>
     <t xml:space="preserve">CY</t>
@@ -788,23 +782,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF2E3436"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -881,7 +858,7 @@
       <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.89"/>
@@ -1457,15 +1434,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AK1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.57"/>
@@ -2273,10 +2250,10 @@
         <v>139</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -2285,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -2300,16 +2277,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
@@ -2318,64 +2295,64 @@
         <v>0</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="AG8" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="0" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="0" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="0" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,19 +2363,19 @@
         <v>141</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -2434,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>0</v>
@@ -2455,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="0" t="n">
         <v>0</v>
@@ -2464,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="0" t="n">
         <v>0</v>
@@ -2473,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>0</v>
@@ -2485,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="0" t="n">
         <v>0</v>
@@ -2499,109 +2476,109 @@
         <v>143</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>28412</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" s="0" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0</v>
+        <v>26034</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>0</v>
+        <v>1636</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="AG10" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH10" s="0" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="AI10" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AJ10" s="0" t="n">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="AK10" s="0" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,22 +2589,22 @@
         <v>145</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>28412</v>
+        <v>56</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
@@ -2636,85 +2613,85 @@
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>858</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="0" t="n">
-        <v>821</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>26034</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>1636</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>644</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="AE11" s="0" t="n">
-        <v>459</v>
-      </c>
-      <c r="AF11" s="0" t="n">
-        <v>1885</v>
-      </c>
-      <c r="AG11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH11" s="0" t="n">
-        <v>368</v>
-      </c>
-      <c r="AI11" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
-        <v>174</v>
-      </c>
-      <c r="AK11" s="0" t="n">
-        <v>248</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,13 +2702,13 @@
         <v>147</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
@@ -2752,34 +2729,34 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0" t="n">
         <v>0</v>
@@ -2791,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="0" t="n">
         <v>0</v>
@@ -2803,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>0</v>
@@ -2818,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="AH12" s="0" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +2815,7 @@
         <v>149</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -2951,13 +2928,13 @@
         <v>151</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
@@ -3002,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>0</v>
@@ -3017,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="0" t="n">
         <v>0</v>
@@ -3041,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH14" s="0" t="n">
         <v>0</v>
@@ -3064,13 +3041,13 @@
         <v>153</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
@@ -3115,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0" t="n">
         <v>0</v>
@@ -3130,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="0" t="n">
         <v>0</v>
@@ -3154,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="0" t="n">
         <v>0</v>
@@ -3177,13 +3154,13 @@
         <v>155</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0</v>
@@ -3216,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>0</v>
@@ -3225,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>0</v>
@@ -3240,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>0</v>
@@ -3290,22 +3267,22 @@
         <v>157</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -3317,49 +3294,49 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA17" s="0" t="n">
         <v>0</v>
@@ -3371,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AG17" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AJ17" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK17" s="0" t="n">
         <v>0</v>
@@ -3403,22 +3380,22 @@
         <v>159</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
@@ -3430,49 +3407,49 @@
         <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="0" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="0" t="n">
         <v>0</v>
@@ -3484,25 +3461,25 @@
         <v>0</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="0" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="0" t="n">
         <v>0</v>
@@ -3516,19 +3493,19 @@
         <v>161</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -3546,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>0</v>
@@ -3558,34 +3535,34 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA19" s="0" t="n">
         <v>0</v>
@@ -3597,25 +3574,25 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AH19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK19" s="0" t="n">
         <v>0</v>
@@ -3629,19 +3606,19 @@
         <v>163</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -3659,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>0</v>
@@ -3671,34 +3648,34 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z20" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="0" t="n">
         <v>0</v>
@@ -3710,25 +3687,25 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AH20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0" t="n">
         <v>0</v>
@@ -3742,13 +3719,13 @@
         <v>165</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>0</v>
@@ -3757,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -3784,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>0</v>
@@ -3799,22 +3776,22 @@
         <v>0</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="0" t="n">
         <v>0</v>
@@ -3823,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="0" t="n">
         <v>0</v>
@@ -3841,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK21" s="0" t="n">
         <v>0</v>
@@ -3855,79 +3832,79 @@
         <v>167</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
+      <c r="U22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="Z22" s="0" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="AA22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="0" t="n">
         <v>0</v>
@@ -3939,22 +3916,22 @@
         <v>4</v>
       </c>
       <c r="AE22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AH22" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0" t="n">
         <v>0</v>
@@ -3968,7 +3945,7 @@
         <v>169</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -3983,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -4007,37 +3984,37 @@
         <v>0</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="S23" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="T23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="U23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="0" t="n">
         <v>0</v>
@@ -4049,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="0" t="n">
         <v>0</v>
@@ -4061,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="0" t="n">
         <v>0</v>
@@ -4081,13 +4058,13 @@
         <v>171</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -4096,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
@@ -4126,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>0</v>
@@ -4162,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="0" t="n">
         <v>0</v>
@@ -4180,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="0" t="n">
         <v>0</v>
@@ -4200,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
@@ -4307,19 +4284,19 @@
         <v>175</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -4337,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>0</v>
@@ -4346,22 +4323,22 @@
         <v>0</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="T26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="0" t="n">
         <v>0</v>
@@ -4370,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z26" s="0" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AA26" s="0" t="n">
         <v>0</v>
@@ -4391,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="AE26" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AG26" s="0" t="n">
         <v>0</v>
@@ -4403,10 +4380,10 @@
         <v>0</v>
       </c>
       <c r="AI26" s="0" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AJ26" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK26" s="0" t="n">
         <v>0</v>
@@ -4420,22 +4397,22 @@
         <v>177</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
@@ -4447,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>1</v>
@@ -4456,25 +4433,25 @@
         <v>0</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="0" t="n">
         <v>0</v>
@@ -4483,13 +4460,13 @@
         <v>0</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Z27" s="0" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AA27" s="0" t="n">
         <v>0</v>
@@ -4498,31 +4475,31 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD27" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE27" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="0" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,13 +4510,13 @@
         <v>179</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
@@ -4548,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>0</v>
@@ -4560,16 +4537,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
@@ -4581,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>0</v>
@@ -4599,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="0" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0" t="n">
         <v>0</v>
@@ -4611,22 +4588,22 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AG28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="0" t="n">
         <v>0</v>
@@ -4635,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4623,7 @@
         <v>181</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
@@ -4685,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>0</v>
@@ -4694,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>0</v>
@@ -4712,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="0" t="n">
         <v>0</v>
@@ -4727,13 +4704,13 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AF29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="0" t="n">
         <v>0</v>
@@ -4745,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="0" t="n">
         <v>0</v>
@@ -4759,13 +4736,13 @@
         <v>183</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -4786,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>0</v>
@@ -4798,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>0</v>
@@ -4807,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" s="0" t="n">
         <v>0</v>
@@ -4825,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="0" t="n">
         <v>0</v>
@@ -4843,10 +4820,10 @@
         <v>2</v>
       </c>
       <c r="AE30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0" t="n">
         <v>0</v>
@@ -4858,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="0" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,13 +4849,13 @@
         <v>185</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
@@ -4899,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>0</v>
@@ -4911,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="0" t="n">
         <v>0</v>
@@ -4920,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="0" t="n">
         <v>0</v>
@@ -4953,10 +4930,10 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>0</v>
@@ -4974,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,13 +4962,13 @@
         <v>187</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0</v>
@@ -5000,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>0</v>
@@ -5015,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>0</v>
@@ -5033,28 +5010,28 @@
         <v>0</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="0" t="n">
         <v>0</v>
@@ -5066,16 +5043,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AG32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="0" t="n">
         <v>0</v>
@@ -5084,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,13 +5075,13 @@
         <v>189</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0</v>
@@ -5113,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>0</v>
@@ -5128,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>0</v>
@@ -5146,29 +5123,29 @@
         <v>0</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="W33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z33" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="AA33" s="0" t="n">
         <v>0</v>
       </c>
@@ -5179,16 +5156,16 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AG33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="0" t="n">
         <v>0</v>
@@ -5197,10 +5174,10 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,13 +5188,13 @@
         <v>191</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>0</v>
@@ -5238,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
@@ -5250,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>0</v>
@@ -5277,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="0" t="n">
         <v>0</v>
@@ -5301,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="0" t="n">
         <v>0</v>
@@ -5310,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0" t="n">
         <v>0</v>
@@ -5324,19 +5301,19 @@
         <v>193</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -5351,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>0</v>
@@ -5363,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>0</v>
@@ -5372,25 +5349,25 @@
         <v>0</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="0" t="n">
         <v>0</v>
@@ -5405,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE35" s="0" t="n">
         <v>0</v>
@@ -5414,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0" t="n">
         <v>0</v>
@@ -5423,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK35" s="0" t="n">
         <v>0</v>
@@ -5437,19 +5414,19 @@
         <v>195</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -5485,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="0" t="n">
         <v>0</v>
@@ -5518,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="0" t="n">
         <v>0</v>
@@ -5536,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="0" t="n">
         <v>0</v>
@@ -5546,260 +5523,148 @@
       <c r="A37" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="C37" s="0" t="n">
-        <v>3</v>
+        <f aca="false">SUM(C2:C36)</f>
+        <v>29562</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(D2:D36)</f>
+        <v>12</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>3</v>
+        <f aca="false">SUM(E2:E36)</f>
+        <v>319</v>
       </c>
       <c r="F37" s="0" t="n">
+        <f aca="false">SUM(F2:F36)</f>
         <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(G2:G36)</f>
+        <v>570</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(H2:H36)</f>
+        <v>291</v>
       </c>
       <c r="I37" s="0" t="n">
+        <f aca="false">SUM(I2:I36)</f>
         <v>0</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(J2:J36)</f>
+        <v>1</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(K2:K36)</f>
+        <v>209</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(L2:L36)</f>
+        <v>368</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(M2:M36)</f>
+        <v>40</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(N2:N36)</f>
+        <v>1</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(O2:O36)</f>
+        <v>14</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(P2:P36)</f>
+        <v>1129</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(Q2:Q36)</f>
+        <v>42</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(R2:R36)</f>
+        <v>863</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(S2:S36)</f>
+        <v>26510</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(T2:T36)</f>
+        <v>1749</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(U2:U36)</f>
+        <v>101</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(V2:V36)</f>
+        <v>55</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(W2:W36)</f>
+        <v>57</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(X2:X36)</f>
+        <v>86</v>
       </c>
       <c r="Y37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(Y2:Y36)</f>
+        <v>781</v>
       </c>
       <c r="Z37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(Z2:Z36)</f>
+        <v>265</v>
       </c>
       <c r="AA37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AA2:AA36)</f>
+        <v>10</v>
       </c>
       <c r="AB37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AB2:AB36)</f>
+        <v>1</v>
       </c>
       <c r="AC37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AC2:AC36)</f>
+        <v>22</v>
       </c>
       <c r="AD37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AD2:AD36)</f>
+        <v>193</v>
       </c>
       <c r="AE37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AE2:AE36)</f>
+        <v>507</v>
       </c>
       <c r="AF37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AF2:AF36)</f>
+        <v>2135</v>
       </c>
       <c r="AG37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AG2:AG36)</f>
+        <v>42</v>
       </c>
       <c r="AH37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AH2:AH36)</f>
+        <v>406</v>
       </c>
       <c r="AI37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AI2:AI36)</f>
+        <v>194</v>
       </c>
       <c r="AJ37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(AJ2:AJ36)</f>
+        <v>247</v>
       </c>
       <c r="AK37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <f aca="false">SUM(C2:C37)</f>
-        <v>29799</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <f aca="false">SUM(D2:D37)</f>
-        <v>25</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <f aca="false">SUM(E2:E37)</f>
-        <v>319</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <f aca="false">SUM(F2:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <f aca="false">SUM(G2:G37)</f>
-        <v>571</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <f aca="false">SUM(H2:H37)</f>
-        <v>341</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <f aca="false">SUM(I2:I37)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <f aca="false">SUM(J2:J37)</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <f aca="false">SUM(K2:K37)</f>
-        <v>209</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <f aca="false">SUM(L2:L37)</f>
-        <v>381</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <f aca="false">SUM(M2:M37)</f>
-        <v>62</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <f aca="false">SUM(N2:N37)</f>
-        <v>1</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <f aca="false">SUM(O2:O37)</f>
-        <v>18</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <f aca="false">SUM(P2:P37)</f>
-        <v>1129</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <f aca="false">SUM(Q2:Q37)</f>
-        <v>42</v>
-      </c>
-      <c r="R38" s="0" t="n">
-        <f aca="false">SUM(R2:R37)</f>
-        <v>889</v>
-      </c>
-      <c r="S38" s="0" t="n">
-        <f aca="false">SUM(S2:S37)</f>
-        <v>26745</v>
-      </c>
-      <c r="T38" s="0" t="n">
-        <f aca="false">SUM(T2:T37)</f>
-        <v>1922</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <f aca="false">SUM(U2:U37)</f>
-        <v>101</v>
-      </c>
-      <c r="V38" s="0" t="n">
-        <f aca="false">SUM(V2:V37)</f>
-        <v>274</v>
-      </c>
-      <c r="W38" s="0" t="n">
-        <f aca="false">SUM(W2:W37)</f>
-        <v>276</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <f aca="false">SUM(X2:X37)</f>
-        <v>318</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <f aca="false">SUM(Y2:Y37)</f>
-        <v>781</v>
-      </c>
-      <c r="Z38" s="0" t="n">
-        <f aca="false">SUM(Z2:Z37)</f>
-        <v>265</v>
-      </c>
-      <c r="AA38" s="0" t="n">
-        <f aca="false">SUM(AA2:AA37)</f>
-        <v>23</v>
-      </c>
-      <c r="AB38" s="0" t="n">
-        <f aca="false">SUM(AB2:AB37)</f>
-        <v>1</v>
-      </c>
-      <c r="AC38" s="0" t="n">
-        <f aca="false">SUM(AC2:AC37)</f>
-        <v>89</v>
-      </c>
-      <c r="AD38" s="0" t="n">
-        <f aca="false">SUM(AD2:AD37)</f>
-        <v>296</v>
-      </c>
-      <c r="AE38" s="0" t="n">
-        <f aca="false">SUM(AE2:AE37)</f>
-        <v>507</v>
-      </c>
-      <c r="AF38" s="0" t="n">
-        <f aca="false">SUM(AF2:AF37)</f>
-        <v>2136</v>
-      </c>
-      <c r="AG38" s="0" t="n">
-        <f aca="false">SUM(AG2:AG37)</f>
-        <v>45</v>
-      </c>
-      <c r="AH38" s="0" t="n">
-        <f aca="false">SUM(AH2:AH37)</f>
-        <v>413</v>
-      </c>
-      <c r="AI38" s="0" t="n">
-        <f aca="false">SUM(AI2:AI37)</f>
-        <v>329</v>
-      </c>
-      <c r="AJ38" s="0" t="n">
-        <f aca="false">SUM(AJ2:AJ37)</f>
-        <v>480</v>
-      </c>
-      <c r="AK38" s="0" t="n">
-        <f aca="false">SUM(AK2:AK37)</f>
-        <v>504</v>
-      </c>
-    </row>
+        <f aca="false">SUM(AK2:AK36)</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5816,18 +5681,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AK1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="4" style="0" width="6.56"/>
   </cols>
@@ -6631,7 +6496,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
@@ -6640,85 +6505,85 @@
         <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="AD8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>0</v>
@@ -6744,16 +6609,16 @@
         <v>141</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0</v>
@@ -6780,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -6789,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>0</v>
@@ -6807,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>0</v>
@@ -6822,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AD9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>0</v>
@@ -6857,19 +6722,19 @@
         <v>143</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>7</v>
+        <v>48085</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -6881,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -6890,34 +6755,34 @@
         <v>0</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" s="0" t="n">
-        <v>0</v>
+        <v>43251</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X10" s="0" t="n">
         <v>0</v>
@@ -6929,22 +6794,22 @@
         <v>0</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>4</v>
+        <v>4824</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>0</v>
@@ -6970,19 +6835,19 @@
         <v>145</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>48085</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -6994,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0</v>
@@ -7003,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>0</v>
@@ -7012,29 +6877,29 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="0" t="n">
-        <v>43251</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" s="0" t="n">
         <v>0</v>
       </c>
@@ -7042,22 +6907,22 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>4824</v>
+        <v>31</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>687</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>0</v>
@@ -7083,10 +6948,10 @@
         <v>147</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -7128,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>0</v>
@@ -7146,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>0</v>
@@ -7158,19 +7023,19 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>0</v>
@@ -7309,10 +7174,10 @@
         <v>151</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -7354,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>0</v>
@@ -7381,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD14" s="0" t="n">
         <v>0</v>
@@ -7422,10 +7287,10 @@
         <v>153</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -7467,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>0</v>
@@ -7494,13 +7359,13 @@
         <v>0</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="0" t="n">
         <v>0</v>
@@ -7535,7 +7400,7 @@
         <v>155</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -7571,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>0</v>
@@ -7613,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD16" s="0" t="n">
         <v>0</v>
@@ -7648,7 +7513,7 @@
         <v>157</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
@@ -7660,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -7672,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0</v>
@@ -7684,34 +7549,34 @@
         <v>0</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>0</v>
@@ -7720,22 +7585,22 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB17" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE17" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG17" s="0" t="n">
         <v>0</v>
@@ -7761,7 +7626,7 @@
         <v>159</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0</v>
@@ -7773,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -7785,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0</v>
@@ -7800,31 +7665,31 @@
         <v>0</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>0</v>
@@ -7833,22 +7698,22 @@
         <v>0</v>
       </c>
       <c r="AA18" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE18" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="0" t="n">
         <v>0</v>
@@ -7874,7 +7739,7 @@
         <v>161</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -7919,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>0</v>
@@ -7934,10 +7799,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>0</v>
@@ -7946,19 +7811,19 @@
         <v>0</v>
       </c>
       <c r="AA19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>0</v>
@@ -7987,7 +7852,7 @@
         <v>163</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
@@ -8032,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>0</v>
@@ -8047,10 +7912,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>0</v>
@@ -8065,13 +7930,13 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AD20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>0</v>
@@ -8100,10 +7965,10 @@
         <v>165</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
@@ -8145,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="0" t="n">
         <v>0</v>
@@ -8175,10 +8040,10 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC21" s="0" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AD21" s="0" t="n">
         <v>0</v>
@@ -8187,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG21" s="0" t="n">
         <v>0</v>
@@ -8213,10 +8078,10 @@
         <v>167</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -8255,10 +8120,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>0</v>
@@ -8288,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="AB22" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="AD22" s="0" t="n">
         <v>0</v>
@@ -8300,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="0" t="n">
         <v>0</v>
@@ -8309,13 +8174,13 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8326,7 +8191,7 @@
         <v>169</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -8338,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -8368,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>0</v>
@@ -8401,10 +8266,10 @@
         <v>0</v>
       </c>
       <c r="AB23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="0" t="n">
         <v>0</v>
@@ -8413,16 +8278,16 @@
         <v>0</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AH23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="0" t="n">
         <v>1</v>
@@ -8439,7 +8304,7 @@
         <v>171</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
@@ -8451,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -8514,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="AB24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="0" t="n">
         <v>0</v>
@@ -8526,22 +8391,22 @@
         <v>0</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AH24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AJ24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,7 +8530,7 @@
         <v>175</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
@@ -8674,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>0</v>
@@ -8692,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>0</v>
@@ -8701,16 +8566,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="S26" s="0" t="n">
         <v>0</v>
@@ -8728,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>0</v>
@@ -8743,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="AC26" s="0" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="AD26" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE26" s="0" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>0</v>
@@ -8778,19 +8643,19 @@
         <v>177</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -8802,67 +8667,67 @@
         <v>0</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>251</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>251</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="0" t="n">
-        <v>244</v>
-      </c>
-      <c r="Y27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="0" t="n">
-        <v>244</v>
-      </c>
-      <c r="AD27" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="AE27" s="0" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>0</v>
@@ -8891,10 +8756,10 @@
         <v>179</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
@@ -8903,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -8915,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>0</v>
@@ -8936,10 +8801,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="0" t="n">
         <v>0</v>
@@ -8963,16 +8828,16 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0" t="n">
         <v>0</v>
@@ -9004,10 +8869,10 @@
         <v>181</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
@@ -9040,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -9049,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S29" s="0" t="n">
         <v>0</v>
@@ -9082,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="0" t="n">
         <v>0</v>
@@ -9100,13 +8965,13 @@
         <v>0</v>
       </c>
       <c r="AI29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,10 +8982,10 @@
         <v>183</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
@@ -9129,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -9153,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0</v>
@@ -9162,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S30" s="0" t="n">
         <v>0</v>
@@ -9189,16 +9054,16 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AC30" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="0" t="n">
         <v>0</v>
@@ -9213,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="AI30" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="0" t="n">
         <v>1</v>
@@ -9230,19 +9095,19 @@
         <v>185</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -9275,10 +9140,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>0</v>
@@ -9302,19 +9167,19 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AC31" s="0" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AD31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>0</v>
@@ -9326,13 +9191,13 @@
         <v>0</v>
       </c>
       <c r="AI31" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AK31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9343,16 +9208,16 @@
         <v>187</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>0</v>
@@ -9385,28 +9250,28 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="0" t="n">
         <v>0</v>
@@ -9415,22 +9280,22 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="0" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="AD32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="0" t="n">
         <v>0</v>
@@ -9456,10 +9321,10 @@
         <v>189</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
@@ -9498,28 +9363,28 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="0" t="n">
         <v>0</v>
@@ -9528,22 +9393,22 @@
         <v>0</v>
       </c>
       <c r="AA33" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="0" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="AD33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0" t="n">
         <v>0</v>
@@ -9569,10 +9434,10 @@
         <v>191</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
@@ -9581,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -9605,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
@@ -9641,13 +9506,13 @@
         <v>0</v>
       </c>
       <c r="AA34" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AD34" s="0" t="n">
         <v>0</v>
@@ -9656,22 +9521,22 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AH34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9682,10 +9547,10 @@
         <v>193</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -9694,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -9718,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
@@ -9727,10 +9592,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>0</v>
@@ -9754,13 +9619,13 @@
         <v>0</v>
       </c>
       <c r="AA35" s="0" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="0" t="n">
         <v>0</v>
@@ -9769,22 +9634,22 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AH35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9795,10 +9660,10 @@
         <v>195</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
@@ -9840,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T36" s="0" t="n">
         <v>0</v>
@@ -9873,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD36" s="0" t="n">
         <v>0</v>
@@ -9904,260 +9769,148 @@
       <c r="A37" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="C37" s="0" t="n">
-        <v>8</v>
+        <f aca="false">SUM(C2:C36)</f>
+        <v>48948</v>
       </c>
       <c r="D37" s="0" t="n">
+        <f aca="false">SUM(D2:D36)</f>
+        <v>87</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">SUM(E2:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">SUM(F2:F36)</f>
+        <v>321</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">SUM(G2:G36)</f>
+        <v>303</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">SUM(H2:H36)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <f aca="false">SUM(I2:I36)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">SUM(J2:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">SUM(K2:K36)</f>
+        <v>47</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">SUM(L2:L36)</f>
+        <v>2</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <f aca="false">SUM(M2:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">SUM(N2:N36)</f>
+        <v>12</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">SUM(O2:O36)</f>
+        <v>267</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">SUM(P2:P36)</f>
+        <v>6</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">SUM(Q2:Q36)</f>
+        <v>31</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <f aca="false">SUM(R2:R36)</f>
+        <v>43610</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <f aca="false">SUM(S2:S36)</f>
+        <v>209</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <f aca="false">SUM(T2:T36)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <f aca="false">SUM(U2:U36)</f>
+        <v>16</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <f aca="false">SUM(V2:V36)</f>
+        <v>16</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <f aca="false">SUM(W2:W36)</f>
+        <v>18</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <f aca="false">SUM(X2:X36)</f>
+        <v>316</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <f aca="false">SUM(Y2:Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <f aca="false">SUM(Z2:Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <f aca="false">SUM(AA2:AA36)</f>
+        <v>457</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <f aca="false">SUM(AB2:AB36)</f>
+        <v>37</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <f aca="false">SUM(AC2:AC36)</f>
+        <v>5460</v>
+      </c>
+      <c r="AD37" s="0" t="n">
+        <f aca="false">SUM(AD2:AD36)</f>
+        <v>57</v>
+      </c>
+      <c r="AE37" s="0" t="n">
+        <f aca="false">SUM(AE2:AE36)</f>
+        <v>1004</v>
+      </c>
+      <c r="AF37" s="0" t="n">
+        <f aca="false">SUM(AF2:AF36)</f>
+        <v>37</v>
+      </c>
+      <c r="AG37" s="0" t="n">
+        <f aca="false">SUM(AG2:AG36)</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="0" t="n">
+        <f aca="false">SUM(AH2:AH36)</f>
+        <v>2</v>
+      </c>
+      <c r="AI37" s="0" t="n">
+        <f aca="false">SUM(AI2:AI36)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ37" s="0" t="n">
+        <f aca="false">SUM(AJ2:AJ36)</f>
+        <v>4</v>
+      </c>
+      <c r="AK37" s="0" t="n">
+        <f aca="false">SUM(AK2:AK36)</f>
         <v>5</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <f aca="false">SUM(C2:C37)</f>
-        <v>48986</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <f aca="false">SUM(D2:D37)</f>
-        <v>87</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <f aca="false">SUM(E2:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <f aca="false">SUM(F2:F37)</f>
-        <v>322</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <f aca="false">SUM(G2:G37)</f>
-        <v>332</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <f aca="false">SUM(H2:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <f aca="false">SUM(I2:I37)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <f aca="false">SUM(J2:J37)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <f aca="false">SUM(K2:K37)</f>
-        <v>50</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <f aca="false">SUM(L2:L37)</f>
-        <v>2</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <f aca="false">SUM(M2:M37)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <f aca="false">SUM(N2:N37)</f>
-        <v>12</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <f aca="false">SUM(O2:O37)</f>
-        <v>267</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <f aca="false">SUM(P2:P37)</f>
-        <v>6</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <f aca="false">SUM(Q2:Q37)</f>
-        <v>35</v>
-      </c>
-      <c r="R38" s="0" t="n">
-        <f aca="false">SUM(R2:R37)</f>
-        <v>43647</v>
-      </c>
-      <c r="S38" s="0" t="n">
-        <f aca="false">SUM(S2:S37)</f>
-        <v>247</v>
-      </c>
-      <c r="T38" s="0" t="n">
-        <f aca="false">SUM(T2:T37)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <f aca="false">SUM(U2:U37)</f>
-        <v>52</v>
-      </c>
-      <c r="V38" s="0" t="n">
-        <f aca="false">SUM(V2:V37)</f>
-        <v>52</v>
-      </c>
-      <c r="W38" s="0" t="n">
-        <f aca="false">SUM(W2:W37)</f>
-        <v>54</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <f aca="false">SUM(X2:X37)</f>
-        <v>316</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <f aca="false">SUM(Y2:Y37)</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="0" t="n">
-        <f aca="false">SUM(Z2:Z37)</f>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="0" t="n">
-        <f aca="false">SUM(AA2:AA37)</f>
-        <v>494</v>
-      </c>
-      <c r="AB38" s="0" t="n">
-        <f aca="false">SUM(AB2:AB37)</f>
-        <v>72</v>
-      </c>
-      <c r="AC38" s="0" t="n">
-        <f aca="false">SUM(AC2:AC37)</f>
-        <v>5463</v>
-      </c>
-      <c r="AD38" s="0" t="n">
-        <f aca="false">SUM(AD2:AD37)</f>
-        <v>57</v>
-      </c>
-      <c r="AE38" s="0" t="n">
-        <f aca="false">SUM(AE2:AE37)</f>
-        <v>1041</v>
-      </c>
-      <c r="AF38" s="0" t="n">
-        <f aca="false">SUM(AF2:AF37)</f>
-        <v>72</v>
-      </c>
-      <c r="AG38" s="0" t="n">
-        <f aca="false">SUM(AG2:AG37)</f>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="0" t="n">
-        <f aca="false">SUM(AH2:AH37)</f>
-        <v>2</v>
-      </c>
-      <c r="AI38" s="0" t="n">
-        <f aca="false">SUM(AI2:AI37)</f>
-        <v>7</v>
-      </c>
-      <c r="AJ38" s="0" t="n">
-        <f aca="false">SUM(AJ2:AJ37)</f>
-        <v>4</v>
-      </c>
-      <c r="AK38" s="0" t="n">
-        <f aca="false">SUM(AK2:AK37)</f>
-        <v>5</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/mr-dashboards/mr2024/resources/MetadataFailingValidationAllEndpoints.xlsx
+++ b/mr-dashboards/mr2024/resources/MetadataFailingValidationAllEndpoints.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="197">
   <si>
     <t xml:space="preserve">md_failed</t>
   </si>
@@ -480,139 +480,139 @@
     <t xml:space="preserve">917ecef2-030d-4f61-a874-a8fa45dbb1e5</t>
   </si>
   <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3928b8fb-c393-460f-b8d1-fb756fa1cd49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b0259e81-cd1c-4354-bfa2-5cad4c3c7308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e44416c9-082c-4ffe-9b43-e776960f1fa2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b50f8b12-5b04-4648-be93-ee103002e4f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38126778-f198-4fe3-a71f-81f994ea7401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16a10f8c-5931-49b9-b9b2-923b69d36f15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f15a1d5-3ae5-4169-8cd0-1e9f14cf8baf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1bae6e77-8e8e-480c-be6b-d9f47f31371b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71c96a8f-fb74-4bc6-9a15-2f798f62a7d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470a8afd-bd30-4bc6-a044-cbbc46c89c68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29f5dbeb-474e-42a3-94bc-1b76952299ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7447eb94-46a8-4995-9fc0-635ff0d2f5c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9d92d1c4-c4b6-4d8c-8cec-0fc58989615f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04e44bbf-163c-42fa-ab6c-a2114c1eee5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e9f6f41-12a5-4c7b-a75e-d0faa7974d4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cad4f63a-2868-4116-b140-e2b324133207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85a23ec3-62d5-4c15-875d-b6802485b629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5584907-90de-424d-8d40-7f7a418e569b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2e04512-5b00-4fd6-986f-7be30c75eb35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deea5672-2d32-46ae-be07-aec9e4c58849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ca98445-49f7-4e1a-9365-627650113b6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a6d029e3-fbb1-4459-86fd-e74ec0ed1b23</t>
+  </si>
+  <si>
     <t xml:space="preserve">EUROSTAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3928b8fb-c393-460f-b8d1-fb756fa1cd49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0259e81-cd1c-4354-bfa2-5cad4c3c7308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e44416c9-082c-4ffe-9b43-e776960f1fa2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b50f8b12-5b04-4648-be93-ee103002e4f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38126778-f198-4fe3-a71f-81f994ea7401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16a10f8c-5931-49b9-b9b2-923b69d36f15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f15a1d5-3ae5-4169-8cd0-1e9f14cf8baf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1bae6e77-8e8e-480c-be6b-d9f47f31371b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71c96a8f-fb74-4bc6-9a15-2f798f62a7d4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470a8afd-bd30-4bc6-a044-cbbc46c89c68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29f5dbeb-474e-42a3-94bc-1b76952299ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7447eb94-46a8-4995-9fc0-635ff0d2f5c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9d92d1c4-c4b6-4d8c-8cec-0fc58989615f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04e44bbf-163c-42fa-ab6c-a2114c1eee5b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8e9f6f41-12a5-4c7b-a75e-d0faa7974d4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cad4f63a-2868-4116-b140-e2b324133207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85a23ec3-62d5-4c15-875d-b6802485b629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e5584907-90de-424d-8d40-7f7a418e569b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f2e04512-5b00-4fd6-986f-7be30c75eb35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deea5672-2d32-46ae-be07-aec9e4c58849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ca98445-49f7-4e1a-9365-627650113b6d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a6d029e3-fbb1-4459-86fd-e74ec0ed1b23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
       <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.89"/>
@@ -1434,15 +1434,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK1048576"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.57"/>
@@ -5520,9 +5520,6 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="C37" s="0" t="n">
         <f aca="false">SUM(C2:C36)</f>
         <v>29562</v>
@@ -5664,7 +5661,6 @@
         <v>366</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5689,10 +5685,10 @@
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="4" style="0" width="6.56"/>
   </cols>
@@ -7281,7 +7277,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>153</v>
@@ -7394,7 +7390,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>155</v>
@@ -7507,7 +7503,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>157</v>
@@ -7620,7 +7616,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>159</v>
@@ -7733,7 +7729,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>161</v>
@@ -7846,7 +7842,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>163</v>
@@ -7959,7 +7955,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>165</v>
@@ -8072,7 +8068,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>167</v>
@@ -8185,7 +8181,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>169</v>
@@ -8298,7 +8294,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>171</v>
@@ -8411,7 +8407,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>173</v>
@@ -8524,7 +8520,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>175</v>
@@ -8637,7 +8633,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>177</v>
@@ -8750,7 +8746,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>179</v>
@@ -8863,7 +8859,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>181</v>
@@ -8976,7 +8972,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>183</v>
@@ -9089,7 +9085,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>185</v>
@@ -9202,7 +9198,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>187</v>
@@ -9315,7 +9311,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>189</v>
@@ -9428,7 +9424,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>191</v>
@@ -9541,7 +9537,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>193</v>
@@ -9654,7 +9650,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>195</v>
@@ -9767,7 +9763,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">SUM(C2:C36)</f>
